--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H2">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I2">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J2">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>37.44331603255955</v>
+        <v>72.06221924098578</v>
       </c>
       <c r="R2">
-        <v>336.989844293036</v>
+        <v>648.5599731688721</v>
       </c>
       <c r="S2">
-        <v>0.06105504589048038</v>
+        <v>0.09121453911327362</v>
       </c>
       <c r="T2">
-        <v>0.0610550458904804</v>
+        <v>0.09121453911327364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H3">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I3">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J3">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
-        <v>39.09581851361266</v>
+        <v>41.90963387664068</v>
       </c>
       <c r="R3">
-        <v>351.8623666225139</v>
+        <v>377.1867048897661</v>
       </c>
       <c r="S3">
-        <v>0.0637496153225012</v>
+        <v>0.05304815725532912</v>
       </c>
       <c r="T3">
-        <v>0.06374961532250123</v>
+        <v>0.05304815725532912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H4">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I4">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J4">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>44.72981905385399</v>
+        <v>51.57555264596067</v>
       </c>
       <c r="R4">
-        <v>402.568371484686</v>
+        <v>464.179973813646</v>
       </c>
       <c r="S4">
-        <v>0.07293641280679208</v>
+        <v>0.06528303337954941</v>
       </c>
       <c r="T4">
-        <v>0.0729364128067921</v>
+        <v>0.06528303337954941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.921795333333333</v>
+        <v>4.24427</v>
       </c>
       <c r="H5">
-        <v>5.765385999999999</v>
+        <v>12.73281</v>
       </c>
       <c r="I5">
-        <v>0.1981502018195672</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J5">
-        <v>0.1981502018195672</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1305583333333333</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N5">
-        <v>0.391675</v>
+        <v>104.939308</v>
       </c>
       <c r="O5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q5">
-        <v>0.2509063957277777</v>
+        <v>148.4635855883867</v>
       </c>
       <c r="R5">
-        <v>2.25815756155</v>
+        <v>1336.17227029548</v>
       </c>
       <c r="S5">
-        <v>0.0004091277997935195</v>
+        <v>0.1879214611648629</v>
       </c>
       <c r="T5">
-        <v>0.0004091277997935196</v>
+        <v>0.1879214611648629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>12.73281</v>
       </c>
       <c r="I6">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J6">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>19.48350866666667</v>
+        <v>20.343383</v>
       </c>
       <c r="N6">
-        <v>58.450526</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O6">
-        <v>0.3081250754721726</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P6">
-        <v>0.3081250754721727</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q6">
-        <v>82.69327132867333</v>
+        <v>86.34281016541001</v>
       </c>
       <c r="R6">
-        <v>744.23944195806</v>
+        <v>777.0852914886901</v>
       </c>
       <c r="S6">
-        <v>0.1348395925033931</v>
+        <v>0.109290550831432</v>
       </c>
       <c r="T6">
-        <v>0.1348395925033932</v>
+        <v>0.109290550831432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>12.73281</v>
       </c>
       <c r="I7">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J7">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.343383</v>
+        <v>25.035323</v>
       </c>
       <c r="N7">
-        <v>61.03014899999999</v>
+        <v>75.105969</v>
       </c>
       <c r="O7">
-        <v>0.3217236961512192</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P7">
-        <v>0.3217236961512193</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q7">
-        <v>86.34281016541</v>
+        <v>106.25667034921</v>
       </c>
       <c r="R7">
-        <v>777.08529148869</v>
+        <v>956.3100331428901</v>
       </c>
       <c r="S7">
-        <v>0.1407905280712335</v>
+        <v>0.1344970126607171</v>
       </c>
       <c r="T7">
-        <v>0.1407905280712336</v>
+        <v>0.1344970126607171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.24427</v>
+        <v>2.602283</v>
       </c>
       <c r="H8">
-        <v>12.73281</v>
+        <v>7.806849</v>
       </c>
       <c r="I8">
-        <v>0.437613174769253</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J8">
-        <v>0.437613174769253</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.275017</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N8">
-        <v>69.825051</v>
+        <v>104.939308</v>
       </c>
       <c r="O8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q8">
-        <v>98.78545640259001</v>
+        <v>91.02725908005468</v>
       </c>
       <c r="R8">
-        <v>889.0691076233101</v>
+        <v>819.245331720492</v>
       </c>
       <c r="S8">
-        <v>0.1610794986407589</v>
+        <v>0.1152200080872524</v>
       </c>
       <c r="T8">
-        <v>0.1610794986407589</v>
+        <v>0.1152200080872524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.24427</v>
+        <v>2.602283</v>
       </c>
       <c r="H9">
-        <v>12.73281</v>
+        <v>7.806849</v>
       </c>
       <c r="I9">
-        <v>0.437613174769253</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J9">
-        <v>0.437613174769253</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1305583333333333</v>
+        <v>20.343383</v>
       </c>
       <c r="N9">
-        <v>0.391675</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O9">
-        <v>0.002064735720865253</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P9">
-        <v>0.002064735720865253</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q9">
-        <v>0.5541248174166666</v>
+        <v>52.939239743389</v>
       </c>
       <c r="R9">
-        <v>4.987123356750001</v>
+        <v>476.453157690501</v>
       </c>
       <c r="S9">
-        <v>0.0009035555538673254</v>
+        <v>0.06700915410406766</v>
       </c>
       <c r="T9">
-        <v>0.0009035555538673256</v>
+        <v>0.06700915410406766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.464018</v>
+        <v>2.602283</v>
       </c>
       <c r="H10">
-        <v>7.392054</v>
+        <v>7.806849</v>
       </c>
       <c r="I10">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J10">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>19.48350866666667</v>
+        <v>25.035323</v>
       </c>
       <c r="N10">
-        <v>58.450526</v>
+        <v>75.105969</v>
       </c>
       <c r="O10">
-        <v>0.3081250754721726</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P10">
-        <v>0.3081250754721727</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q10">
-        <v>48.00771605782266</v>
+        <v>65.148995442409</v>
       </c>
       <c r="R10">
-        <v>432.069444520404</v>
+        <v>586.340958981681</v>
       </c>
       <c r="S10">
-        <v>0.07828134945256209</v>
+        <v>0.08246395483740877</v>
       </c>
       <c r="T10">
-        <v>0.0782813494525621</v>
+        <v>0.08246395483740877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.464018</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H11">
-        <v>7.392054</v>
+        <v>2.77397</v>
       </c>
       <c r="I11">
-        <v>0.2540570556700175</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J11">
-        <v>0.2540570556700175</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.343383</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N11">
-        <v>61.03014899999999</v>
+        <v>104.939308</v>
       </c>
       <c r="O11">
-        <v>0.3217236961512192</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P11">
-        <v>0.3217236961512193</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q11">
-        <v>50.12646189289399</v>
+        <v>32.34427691252889</v>
       </c>
       <c r="R11">
-        <v>451.1381570360459</v>
+        <v>291.09849221276</v>
       </c>
       <c r="S11">
-        <v>0.08173617498345408</v>
+        <v>0.04094056972714543</v>
       </c>
       <c r="T11">
-        <v>0.08173617498345409</v>
+        <v>0.04094056972714543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.464018</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H12">
-        <v>7.392054</v>
+        <v>2.77397</v>
       </c>
       <c r="I12">
-        <v>0.2540570556700175</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J12">
-        <v>0.2540570556700175</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.275017</v>
+        <v>20.343383</v>
       </c>
       <c r="N12">
-        <v>69.825051</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O12">
-        <v>0.3680864926557428</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P12">
-        <v>0.3680864926557428</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q12">
-        <v>57.350060838306</v>
+        <v>18.81064471350333</v>
       </c>
       <c r="R12">
-        <v>516.150547544754</v>
+        <v>169.29580242153</v>
       </c>
       <c r="S12">
-        <v>0.09351497055602152</v>
+        <v>0.02381003951915306</v>
       </c>
       <c r="T12">
-        <v>0.09351497055602154</v>
+        <v>0.02381003951915306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.464018</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H13">
-        <v>7.392054</v>
+        <v>2.77397</v>
       </c>
       <c r="I13">
-        <v>0.2540570556700175</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J13">
-        <v>0.2540570556700175</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1305583333333333</v>
+        <v>25.035323</v>
       </c>
       <c r="N13">
-        <v>0.391675</v>
+        <v>75.105969</v>
       </c>
       <c r="O13">
-        <v>0.002064735720865253</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P13">
-        <v>0.002064735720865253</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q13">
-        <v>0.3216980833833333</v>
+        <v>23.14907831410333</v>
       </c>
       <c r="R13">
-        <v>2.89528275045</v>
+        <v>208.34170482693</v>
       </c>
       <c r="S13">
-        <v>0.0005245606779797371</v>
+        <v>0.02930151931980839</v>
       </c>
       <c r="T13">
-        <v>0.0005245606779797372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.068596333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.205789</v>
-      </c>
-      <c r="I14">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="J14">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>19.48350866666667</v>
-      </c>
-      <c r="N14">
-        <v>58.450526</v>
-      </c>
-      <c r="O14">
-        <v>0.3081250754721726</v>
-      </c>
-      <c r="P14">
-        <v>0.3081250754721727</v>
-      </c>
-      <c r="Q14">
-        <v>20.82000592166822</v>
-      </c>
-      <c r="R14">
-        <v>187.380053295014</v>
-      </c>
-      <c r="S14">
-        <v>0.03394908762573699</v>
-      </c>
-      <c r="T14">
-        <v>0.03394908762573699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.068596333333333</v>
-      </c>
-      <c r="H15">
-        <v>3.205789</v>
-      </c>
-      <c r="I15">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="J15">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>20.343383</v>
-      </c>
-      <c r="N15">
-        <v>61.03014899999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3217236961512192</v>
-      </c>
-      <c r="P15">
-        <v>0.3217236961512193</v>
-      </c>
-      <c r="Q15">
-        <v>21.73886448139567</v>
-      </c>
-      <c r="R15">
-        <v>195.649780332561</v>
-      </c>
-      <c r="S15">
-        <v>0.03544737777403038</v>
-      </c>
-      <c r="T15">
-        <v>0.03544737777403038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.068596333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.205789</v>
-      </c>
-      <c r="I16">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="J16">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.275017</v>
-      </c>
-      <c r="N16">
-        <v>69.825051</v>
-      </c>
-      <c r="O16">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="P16">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="Q16">
-        <v>24.87159782447101</v>
-      </c>
-      <c r="R16">
-        <v>223.844380420239</v>
-      </c>
-      <c r="S16">
-        <v>0.04055561065217025</v>
-      </c>
-      <c r="T16">
-        <v>0.04055561065217025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.068596333333333</v>
-      </c>
-      <c r="H17">
-        <v>3.205789</v>
-      </c>
-      <c r="I17">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="J17">
-        <v>0.1101795677411623</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.391675</v>
-      </c>
-      <c r="O17">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P17">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q17">
-        <v>0.1395141562861111</v>
-      </c>
-      <c r="R17">
-        <v>1.255627406575</v>
-      </c>
-      <c r="S17">
-        <v>0.0002274916892246707</v>
-      </c>
-      <c r="T17">
-        <v>0.0002274916892246707</v>
+        <v>0.02930151931980839</v>
       </c>
     </row>
   </sheetData>
